--- a/output/Transitions Rule/facility_data/transition_rule_facility_demographics_3mi.xlsx
+++ b/output/Transitions Rule/facility_data/transition_rule_facility_demographics_3mi.xlsx
@@ -594,10 +594,10 @@
         <v>8.99036621078316</v>
       </c>
       <c r="R2" t="n">
-        <v>42.1486414737295</v>
+        <v>38.5714285714286</v>
       </c>
       <c r="S2" t="n">
-        <v>0.583538713088711</v>
+        <v>0.485714285714286</v>
       </c>
     </row>
     <row r="3">
@@ -653,10 +653,10 @@
         <v>6.92743033168565</v>
       </c>
       <c r="R3" t="n">
-        <v>53.5633054085323</v>
+        <v>50</v>
       </c>
       <c r="S3" t="n">
-        <v>0.677420520359875</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -710,10 +710,10 @@
         <v>5.03229217601841</v>
       </c>
       <c r="R4" t="n">
-        <v>38.0533645062785</v>
+        <v>38.2894736842105</v>
       </c>
       <c r="S4" t="n">
-        <v>0.570388831314186</v>
+        <v>0.444736842105263</v>
       </c>
     </row>
     <row r="5">
@@ -767,10 +767,10 @@
         <v>12.3343544086988</v>
       </c>
       <c r="R5" t="n">
-        <v>35.665188213538</v>
+        <v>30</v>
       </c>
       <c r="S5" t="n">
-        <v>0.627598108108357</v>
+        <v>0.497674418604651</v>
       </c>
     </row>
     <row r="6">
@@ -826,10 +826,10 @@
         <v>13.764703338074</v>
       </c>
       <c r="R6" t="n">
-        <v>29.5286898265715</v>
+        <v>30</v>
       </c>
       <c r="S6" t="n">
-        <v>0.387696786664597</v>
+        <v>0.393333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -883,10 +883,10 @@
         <v>2.94731126966235</v>
       </c>
       <c r="R7" t="n">
-        <v>25.5329488597338</v>
+        <v>27</v>
       </c>
       <c r="S7" t="n">
-        <v>0.346122304052685</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="8">
@@ -942,10 +942,10 @@
         <v>5.41235145705944</v>
       </c>
       <c r="R8" t="n">
-        <v>18.9716013762557</v>
+        <v>20</v>
       </c>
       <c r="S8" t="n">
-        <v>0.24461481506234</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -1001,10 +1001,10 @@
         <v>4.76903621594129</v>
       </c>
       <c r="R9" t="n">
-        <v>105.855095562655</v>
+        <v>87.5</v>
       </c>
       <c r="S9" t="n">
-        <v>0.700461593521821</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -1060,10 +1060,10 @@
         <v>2.87256612619637</v>
       </c>
       <c r="R10" t="n">
-        <v>135.206669555444</v>
+        <v>128.75</v>
       </c>
       <c r="S10" t="n">
-        <v>0.797919511351107</v>
+        <v>0.5375</v>
       </c>
     </row>
     <row r="11">
@@ -1117,10 +1117,10 @@
         <v>16.2310531319204</v>
       </c>
       <c r="R11" t="n">
-        <v>40.4949724451724</v>
+        <v>40</v>
       </c>
       <c r="S11" t="n">
-        <v>0.565827396453825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -1174,10 +1174,10 @@
         <v>4.75282733651818</v>
       </c>
       <c r="R12" t="n">
-        <v>36.0207540517984</v>
+        <v>30</v>
       </c>
       <c r="S12" t="n">
-        <v>0.421687140078848</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="13">
@@ -1233,10 +1233,10 @@
         <v>14.4170079344827</v>
       </c>
       <c r="R13" t="n">
-        <v>72.9918323500681</v>
+        <v>41.1764705882353</v>
       </c>
       <c r="S13" t="n">
-        <v>0.875122419313483</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
@@ -1292,10 +1292,10 @@
         <v>3.91111822209095</v>
       </c>
       <c r="R14" t="n">
-        <v>18.4885246617085</v>
+        <v>20</v>
       </c>
       <c r="S14" t="n">
-        <v>0.218238053096123</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="15">
@@ -1349,10 +1349,10 @@
         <v>9.93235708985043</v>
       </c>
       <c r="R15" t="n">
-        <v>32.4498839349654</v>
+        <v>30</v>
       </c>
       <c r="S15" t="n">
-        <v>0.457052798673872</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/output/Transitions Rule/facility_data/transition_rule_facility_demographics_3mi.xlsx
+++ b/output/Transitions Rule/facility_data/transition_rule_facility_demographics_3mi.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -95,34 +95,31 @@
     <t xml:space="preserve">Stockton</t>
   </si>
   <si>
+    <t xml:space="preserve">Diversified-CPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channahon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linde-Whiting</t>
   </si>
   <si>
-    <t xml:space="preserve">EAST CHICAGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diversified-CPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channahon</t>
+    <t xml:space="preserve">East Chicago</t>
   </si>
   <si>
     <t xml:space="preserve">CFI-PortNeal</t>
   </si>
   <si>
-    <t xml:space="preserve">SERGEANT BLUFF</t>
+    <t xml:space="preserve">Sergeant Bluff</t>
   </si>
   <si>
     <t xml:space="preserve">APC-Geismar</t>
   </si>
   <si>
-    <t xml:space="preserve">GEISMAR</t>
+    <t xml:space="preserve">Geismar</t>
   </si>
   <si>
     <t xml:space="preserve">Honeywell-Geismar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geismar</t>
   </si>
   <si>
     <t xml:space="preserve">AEROPRES-SIBLEY</t>
@@ -552,52 +549,52 @@
       </c>
       <c r="C2"/>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>151.360173492762</v>
+        <v>171.012007267968</v>
       </c>
       <c r="F2" t="n">
-        <v>10408</v>
+        <v>26593</v>
       </c>
       <c r="G2" t="n">
-        <v>68.7631347125649</v>
+        <v>155.503700733306</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
       <c r="J2" t="n">
-        <v>6065</v>
+        <v>15888</v>
       </c>
       <c r="K2" t="n">
-        <v>3643</v>
+        <v>8563</v>
       </c>
       <c r="L2" t="n">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="M2" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>894</v>
+        <v>3609</v>
       </c>
       <c r="O2" t="n">
-        <v>53.0692857142857</v>
+        <v>46.6776666666667</v>
       </c>
       <c r="P2" t="n">
-        <v>6.99280592534746</v>
+        <v>8.49845991335092</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.99036621078316</v>
+        <v>14.2254707164624</v>
       </c>
       <c r="R2" t="n">
-        <v>38.5714285714286</v>
+        <v>40.5555555555556</v>
       </c>
       <c r="S2" t="n">
-        <v>0.485714285714286</v>
+        <v>0.505555555555556</v>
       </c>
     </row>
     <row r="3">
@@ -780,56 +777,54 @@
       <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="n">
-        <v>183562</v>
-      </c>
+      <c r="C6"/>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>31.2019908979243</v>
+        <v>132.596145486872</v>
       </c>
       <c r="F6" t="n">
-        <v>49000</v>
+        <v>24316</v>
       </c>
       <c r="G6" t="n">
-        <v>1570.41261117923</v>
+        <v>183.383912938913</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="J6" t="n">
-        <v>19564</v>
+        <v>22281</v>
       </c>
       <c r="K6" t="n">
-        <v>11500</v>
+        <v>493</v>
       </c>
       <c r="L6" t="n">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="M6" t="n">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="N6" t="n">
-        <v>25798</v>
+        <v>3206</v>
       </c>
       <c r="O6" t="n">
-        <v>40.5969302325581</v>
+        <v>94.4638</v>
       </c>
       <c r="P6" t="n">
-        <v>11.6063807874376</v>
+        <v>1.96299114127479</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.764703338074</v>
+        <v>2.94731126966235</v>
       </c>
       <c r="R6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S6" t="n">
-        <v>0.393333333333333</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7">
@@ -839,54 +834,56 @@
       <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" t="n">
+        <v>183562</v>
+      </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
-        <v>132.596145486872</v>
+        <v>39.1884589201756</v>
       </c>
       <c r="F7" t="n">
-        <v>24316</v>
+        <v>70220</v>
       </c>
       <c r="G7" t="n">
-        <v>183.383912938913</v>
+        <v>1791.85407987167</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>22281</v>
+        <v>24499</v>
       </c>
       <c r="K7" t="n">
-        <v>493</v>
+        <v>20429</v>
       </c>
       <c r="L7" t="n">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="M7" t="n">
-        <v>199</v>
+        <v>490</v>
       </c>
       <c r="N7" t="n">
-        <v>3206</v>
+        <v>34175</v>
       </c>
       <c r="O7" t="n">
-        <v>94.4638</v>
+        <v>39.5717419354839</v>
       </c>
       <c r="P7" t="n">
-        <v>1.96299114127479</v>
+        <v>12.9769263034948</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.94731126966235</v>
+        <v>13.897701347952</v>
       </c>
       <c r="R7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S7" t="n">
-        <v>0.32</v>
+        <v>0.364615384615385</v>
       </c>
     </row>
     <row r="8">
@@ -1012,7 +1009,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
         <v>528957</v>
@@ -1068,53 +1065,53 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>179.733497543496</v>
+        <v>155.317267451068</v>
       </c>
       <c r="F11" t="n">
-        <v>5626</v>
+        <v>9240</v>
       </c>
       <c r="G11" t="n">
-        <v>31.3019001849584</v>
+        <v>59.4911316149121</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J11" t="n">
-        <v>4327</v>
+        <v>4737</v>
       </c>
       <c r="K11" t="n">
-        <v>1200</v>
+        <v>4379</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N11" t="n">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="O11" t="n">
-        <v>38.1274</v>
+        <v>25.380125</v>
       </c>
       <c r="P11" t="n">
-        <v>11.4419342226998</v>
+        <v>9.17561925571522</v>
       </c>
       <c r="Q11" t="n">
-        <v>16.2310531319204</v>
+        <v>21.1990327607574</v>
       </c>
       <c r="R11" t="n">
         <v>40</v>
@@ -1125,10 +1122,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="n">
@@ -1182,58 +1179,58 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
       </c>
       <c r="C13" t="n">
         <v>2423361</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E13" t="n">
-        <v>448.783080176322</v>
+        <v>449.535365707168</v>
       </c>
       <c r="F13" t="n">
-        <v>12112</v>
+        <v>14855</v>
       </c>
       <c r="G13" t="n">
-        <v>26.9885397534179</v>
+        <v>33.0452309945213</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="J13" t="n">
-        <v>2858</v>
+        <v>4680</v>
       </c>
       <c r="K13" t="n">
-        <v>8705</v>
+        <v>9373</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M13" t="n">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="N13" t="n">
-        <v>910</v>
+        <v>2636</v>
       </c>
       <c r="O13" t="n">
-        <v>34.145625</v>
+        <v>34.5933888888889</v>
       </c>
       <c r="P13" t="n">
-        <v>16.9837499996999</v>
+        <v>16.174443514373</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.4170079344827</v>
+        <v>14.4631067590132</v>
       </c>
       <c r="R13" t="n">
-        <v>41.1764705882353</v>
+        <v>42.1052631578947</v>
       </c>
       <c r="S13" t="n">
         <v>0.4</v>
@@ -1241,69 +1238,69 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
       </c>
       <c r="C14" t="n">
         <v>26401</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>316.576289745066</v>
+        <v>322.88741866344</v>
       </c>
       <c r="F14" t="n">
-        <v>18178</v>
+        <v>19446</v>
       </c>
       <c r="G14" t="n">
-        <v>57.4205984113291</v>
+        <v>60.2253258442052</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="J14" t="n">
-        <v>16689</v>
+        <v>17821</v>
       </c>
       <c r="K14" t="n">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="L14" t="n">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M14" t="n">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="N14" t="n">
-        <v>8131</v>
+        <v>8387</v>
       </c>
       <c r="O14" t="n">
-        <v>71.7137777777778</v>
+        <v>73.1127</v>
       </c>
       <c r="P14" t="n">
-        <v>4.64248768658389</v>
+        <v>4.34232462474073</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.91111822209095</v>
+        <v>3.89252789332616</v>
       </c>
       <c r="R14" t="n">
         <v>20</v>
       </c>
       <c r="S14" t="n">
-        <v>0.21</v>
+        <v>0.209090909090909</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="n">
